--- a/варианты/горбачев/4/4.XLSX
+++ b/варианты/горбачев/4/4.XLSX
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -379,12 +379,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -417,9 +417,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -439,20 +439,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -461,13 +461,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>SUM(B1:B7)+B2+B5+B6*3+B7</f>
-        <v>44</v>
+        <f>SUM(B1:B7)+B5+B4*3+B6+B2</f>
+        <v>36</v>
       </c>
       <c r="C8">
-        <f>SUM(C1:C7)+C2+C5+C6*3+C7</f>
+        <f>SUM(C1:C7)+C5+C4*3+C6+C2</f>
         <v>39</v>
       </c>
     </row>
@@ -482,7 +482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -494,7 +494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
